--- a/Data/Podaci po zupanijama.xlsx
+++ b/Data/Podaci po zupanijama.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domag\Documents\ZavrsniRad\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domagojrunjak/Documents/Zavrsni rad/zavrsni-rad/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE7D4AB-B7AB-4450-A2FA-B2BD24E20AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E2E562-7DCA-614F-A556-5BB6464FA41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-3100" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Naziv županije</t>
   </si>
@@ -115,6 +115,75 @@
   </si>
   <si>
     <t>2021.</t>
+  </si>
+  <si>
+    <t>Sjedište županije</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>Sisak</t>
+  </si>
+  <si>
+    <t>Karlovac</t>
+  </si>
+  <si>
+    <t>Varaždin</t>
+  </si>
+  <si>
+    <t>Koprivnica</t>
+  </si>
+  <si>
+    <t>Bjelovar</t>
+  </si>
+  <si>
+    <t>Rijeka</t>
+  </si>
+  <si>
+    <t>Gospić</t>
+  </si>
+  <si>
+    <t>Virovitica</t>
+  </si>
+  <si>
+    <t>Požega</t>
+  </si>
+  <si>
+    <t>Slavonski Brod</t>
+  </si>
+  <si>
+    <t>Zadar</t>
+  </si>
+  <si>
+    <t>Osijek</t>
+  </si>
+  <si>
+    <t>Šibenik</t>
+  </si>
+  <si>
+    <t>Vukovar</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Pazin</t>
+  </si>
+  <si>
+    <t>Dubrovnik</t>
+  </si>
+  <si>
+    <t>Čakovec</t>
+  </si>
+  <si>
+    <t>Krapina</t>
+  </si>
+  <si>
+    <t>Površina</t>
+  </si>
+  <si>
+    <t>Gustoća naseljenosti</t>
   </si>
 </sst>
 </file>
@@ -433,652 +502,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>3060</v>
+      </c>
+      <c r="D2">
+        <v>98.03</v>
+      </c>
+      <c r="E2" s="1">
         <v>134754</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>194643</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>224095</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>233875</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>282989</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>309696</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>316606</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>301206</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1229</v>
+      </c>
+      <c r="D3">
+        <v>98.21</v>
+      </c>
+      <c r="E3" s="1">
         <v>100804</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>152047</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>175227</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>168952</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>148779</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>142432</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>132892</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>120942</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>4468</v>
+      </c>
+      <c r="D4">
+        <v>31.25</v>
+      </c>
+      <c r="E4" s="1">
         <v>168292</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>235514</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>268287</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>255635</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>251332</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>185387</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>172439</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>140549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>3622</v>
+      </c>
+      <c r="D5">
+        <v>30.97</v>
+      </c>
+      <c r="E5" s="1">
         <v>165697</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>194294</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>231633</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>202431</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>184577</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>141387</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>128899</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>112596</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1262</v>
+      </c>
+      <c r="D6">
+        <v>126.38</v>
+      </c>
+      <c r="E6" s="1">
         <v>87960</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>131849</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>159767</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>179905</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>187853</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>184769</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>175951</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>160264</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>1748</v>
+      </c>
+      <c r="D7">
+        <v>57.91</v>
+      </c>
+      <c r="E7" s="1">
         <v>87464</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>132581</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>143268</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>143019</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>129397</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>124467</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>115584</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>101661</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>2640</v>
+      </c>
+      <c r="D8">
+        <v>38.590000000000003</v>
+      </c>
+      <c r="E8" s="1">
         <v>84893</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>150825</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>173597</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>167599</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>144042</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>133084</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>119764</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>102295</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>3588</v>
+      </c>
+      <c r="D9">
+        <v>73.97</v>
+      </c>
+      <c r="E9" s="1">
         <v>165503</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>217653</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>237748</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>240621</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>323130</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>305505</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>296195</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>266503</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>5353</v>
+      </c>
+      <c r="D10">
+        <v>7.99</v>
+      </c>
+      <c r="E10" s="1">
         <v>155467</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>186871</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>172735</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>118329</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>85135</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>53677</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>50927</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>42893</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11">
+        <v>34.770000000000003</v>
+      </c>
+      <c r="E11" s="1">
         <v>57107</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>90266</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>125049</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>127512</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>104625</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>93389</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>84836</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>70660</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>1823</v>
+      </c>
+      <c r="D12">
+        <v>35.15</v>
+      </c>
+      <c r="E12" s="1">
         <v>47877</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>79141</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>99657</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>99340</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>99334</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>85831</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>78034</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>64420</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>2030</v>
+      </c>
+      <c r="D13">
+        <v>64.17</v>
+      </c>
+      <c r="E13" s="1">
         <v>74136</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>99979</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>128790</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>154309</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>174998</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>176765</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>158575</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>130782</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>3646</v>
+      </c>
+      <c r="D14">
+        <v>43.82</v>
+      </c>
+      <c r="E14" s="1">
         <v>84091</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>123375</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>149855</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>174957</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>214777</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>162045</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>170017</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>160340</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>4155</v>
+      </c>
+      <c r="D15">
+        <v>62.1</v>
+      </c>
+      <c r="E15" s="1">
         <v>146505</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>209709</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>263024</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>328965</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>367193</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>330506</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>305032</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>259481</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>2994</v>
+      </c>
+      <c r="D16">
+        <v>32.19</v>
+      </c>
+      <c r="E16" s="1">
         <v>85163</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>118310</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>147166</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>164757</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>152477</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>112891</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>109375</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>96624</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>2454</v>
+      </c>
+      <c r="D17">
+        <v>58.32</v>
+      </c>
+      <c r="E17" s="1">
         <v>86768</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>125569</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>139340</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>193224</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>231241</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>204768</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>179521</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>144438</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>14045</v>
+      </c>
+      <c r="D18">
+        <v>93.26</v>
+      </c>
+      <c r="E18" s="1">
         <v>164242</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>249867</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>292321</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>339686</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>474019</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>463676</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>454798</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>425412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>2813</v>
+      </c>
+      <c r="D19">
+        <v>69.41</v>
+      </c>
+      <c r="E19" s="1">
         <v>117719</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>194455</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>223949</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>176838</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>204346</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>206344</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>208055</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>195794</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>1781</v>
+      </c>
+      <c r="D20">
+        <v>64.89</v>
+      </c>
+      <c r="E20" s="1">
         <v>63379</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>83135</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>90577</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>99593</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>126329</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>122870</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>122568</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>115862</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>729</v>
+      </c>
+      <c r="D21">
+        <v>144.38</v>
+      </c>
+      <c r="E21" s="1">
         <v>55412</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>79808</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>99346</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>112073</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>119866</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>118426</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>113804</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>105863</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>641.20000000000005</v>
+      </c>
+      <c r="D22">
+        <v>1196</v>
+      </c>
+      <c r="E22" s="1">
         <v>48266</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>111565</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>258024</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>478076</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>777826</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>779145</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>790017</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>769944</v>
       </c>
     </row>

--- a/Data/Podaci po zupanijama.xlsx
+++ b/Data/Podaci po zupanijama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domagojrunjak/Documents/Zavrsni rad/zavrsni-rad/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E2E562-7DCA-614F-A556-5BB6464FA41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA0EF17-AC3E-774A-BE5B-99CAD4ED1653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-3100" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Naziv županije</t>
   </si>
@@ -184,6 +184,73 @@
   </si>
   <si>
     <t>Gustoća naseljenosti</t>
+  </si>
+  <si>
+    <t>O županiji</t>
+  </si>
+  <si>
+    <t>Krapinsko-zagorska županija nalazi se u sjeverozapadnom dijelu Republike Hrvatske i pripada prostoru središnje Hrvatske. Zasebna je geografska cjelina koja se pruža od vrhova Macelja i Ivančice na sjeveru do Medvednice na jugoistoku. Zapadna granica, ujedno i državna sa Republikom Slovenijom, je rijeka Sutla, a istočna granica je vododjelnica porječja Krapine i Lonje. Ovako razgraničen prostor Županije podudara se s prirodnom regijom Donje Zagorje. Na području Krapinsko-zagorske županije prevladavaju naselja koja imaju pretežno seoska obilježja. Naselja koja su proglašena gradovima predstavljaju područja koja imaju prijelazna obilježja između urbaniziranog prostora i sela, a odgovarajućim aktivnostima: prostorno-planerskim, gospodarskim, socijalnim i političkim potrebno je ispravno usmjeriti urbanizaciju i razvoj gradova ( malih gradskih područja ). Broj stanovnika u gradovima Krapinsko-zagorske županije uključuje i stanovnike naselja sa izrazito seoskim obilježjima, dok u urbaniziranom području općina i gradova živi oko 36.142 stanovnika što je 24% ukupnog broja stanovnika Županije. Porast broja stanovnika kontinuirano je prisutan u svim urbaniziranim naseljima gradova i općina Županije dok je smanjenje prisutno u seoskim naseljima.</t>
+  </si>
+  <si>
+    <t>Zagrebačka županija je administrativna cjelina koja je službeno pod tim nazivom, Comitatus Zagrabiensis, utemeljena 17. srpnja 1759. kad joj je carica i kraljica Marija Terezija podarila grb i pečatnjak. Taj grb je i danas u uporabi, a spomenuti datum slavi se kao Dan Zagrebačke županije. Županija se tada prostirala od Zagorja do Križevaca, Siska, Karlovca, preko Gorskog kotara sve do mora. Taj se teritorij tijekom povijesti mijenjao, a u današnjim granicama Zagrebačka županija postoji od 1. siječnja 1997.</t>
+  </si>
+  <si>
+    <t>Smještena je u južnom dijelu središnjeg dijela Republike Hrvatske, na području na kojem se dotiču Panonska i Gorska Hrvatska. Županija graniči sa Zagrebačkom, Karlovačkom, Bjelovarsko-bilogorskom, Brodsko-posavskom i Požeško-slavonskom županijom, a na jugu i s Bosnom i Hercegovinom. Obuhvaća Posavinu, Banovinu, Moslavinu te dijelove Korduna i Slavonije. Sisačko-moslavačka županija predstavlja prometno čvorište i zbog povoljnog prirodnog i prometno-geografskog položaja iznimno je dobro povezana s ostalim dijelovima Republike Hrvatske, kao i susjednim zemljama.</t>
+  </si>
+  <si>
+    <t>Karlovačka županija nalazi se u središnjoj Hrvatskoj te se ubraja u red većih županija. Zahvaljujući svom tranzitnom, prometnom i geostrateškom položaju jedna je od najvažnijih županija: Tu je sjecište i čvorište najvažnijih prometnica koje povezuju Europu s Jadranskom obalom. Karlovačka županija graniči s dvije susjedne države: Republikom Slovenijom i Republikom Bosnom i Hercegovinom, a u doticaju je i sa četiri županije: Zagrebačkom, Sisačko-moslavačkom, Primorsko-goranskom i Ličko senjskom županijom.</t>
+  </si>
+  <si>
+    <t>Varaždinska županija graniči s Međimurskom županijom, na jugu s Krapinsko-zagorskom i Zagrebačkom županijom, na zapadu s Republikom Slovenijom, a na istoku s Koprivničko-križevačkom županijom. Varaždin kao županijsko administrativno središte udaljen je manje od 50 kilometara od granica Republike Austrije i Republike Mađarske. Smještena na rubnom pojasu panonskog područja, Varaždinska županija okružena je rijekom Dravom, Macejskim pobrđem i istočnim Halozama, Kalničkim gorjem te Ivanščicom, a obilježava ju ravničarsko te brežuljkasto reljefno područje s gorskim masivima. Na području Županije nalazi se planina Ivanščica čiji istoimeni vrh dostiže 1.059 m nadmorske visine, a među 55 hrvatskih planina čiji su vrhovi viši od 500 metara je i Ravna gora (Trakošćan) s vrhom na 686 m nadmorske visine. Županija je važno hidrografsko čvorište Hrvatske. Na njezinom području nalaze se vodotoci (rijeke i potoci), jezera (akumulacijska jezera, jezera nastala eksploatacijom šljunka i ostala), izvori i podzemne vode u vodonosniku dravskog aluvija i gorskog masiva Ivanščice. Sve tekućice pripadaju slivu rijeke Dunav, rijeke Plitvica i Bednja preko sliva Drave te Lonja preko sliva Save.</t>
+  </si>
+  <si>
+    <t>Koprivničko-križevačka županija smještena je u sjeverozapadnom dijelu Republike Hrvatske. Nalazi se u grupi županija Središnje Hrvatske, zajedno sa Zagrebačkom, Krapinsko-zagorskom, Varaždinskom, Međimurskom, Bjelovarsko-bilogorskom, Sisačko-moslavačkom i Karlovačkom županijom. Sa sjeveroistočne strane graniči s Republikom Mađarskom. Unutar Republike Hrvatske Koprivničko-križevačka županija graniči sa sljedećim županijama: Međimurskom, Varaždinskom, Zagrebačkom, Bjelovarsko-bilogorskom i Virovitičko-podravskom. Prema prirodno-geografskoj regionalizaciji Republike Hrvatske Koprivničko-križevačka županija pripada Panonskoj megaregiji, a unutar nje zavali sjeverozapadne Hrvatske.
+Prostor Koprivničko-križevačke županije izrazito je raznolik, te uključuje nekoliko prostornih cjelina koje se međusobno razlikuju ne samo po prirodno-zemljopisnim već i po gospodarskim, demografskim, prometnim i ostalim karakteristikama.</t>
+  </si>
+  <si>
+    <t>Bjelovarsko-bilogorska županija nalazi se u istočnom dijelu skupine županija središnjega područja Hrvatske. Na sjeveru graniči s Koprivničko-križevačkom, na sjeveroistoku s Virovitičko-podravskom, na jugu sa Sisačko-moslavačkom i Požeško-slavonskom županijom, na zapadu sa Zagrebačkom županijom. Obuhvaća prostor četiri karakteristične zemljopisne cjeline: Bilogoru (sjeverno i sjeveroistočno), rubne masive Papuka i Ravne gore (istočno), Moslavačku goru (jugozapadno), i dolinu rijeke Česme i Ilove (zapadno, središnje i južno).</t>
+  </si>
+  <si>
+    <t>Primorsko-goranska županija jedinica je regionalne samouprave ustrojena na području Primorsko-goranskog teritorija na zapadnom dijelu Republike Hrvatske. Na sjevernom djelu nalazi se šumovit goranski kraj, dok je južni dio područje uz more s nekoliko velikih, nastanjenih otoka, Krk, Cres, Lošinj i Rab. Središnji dio područja pruža se od istočnih obronaka Učke, preko najvećeg grada Rijeke koja je ujedno i sjedište Županije, do Vinodolskog područja.</t>
+  </si>
+  <si>
+    <t>Ličko-senjska županija smještena je između Primorsko-goranske županije na  sjeverozapadu,  Karlovačke  županije  na  sjeveru,  Zadarske  županije  na  jugu  i  jugoistoku  te  Bosne  i  Hercegovine  na  istoku.  Ima  središnji  geografski  položaj  i  važno  spojno  značenje  unutar  prostora Republike Hrvatske. Prostire se isključivo u većem dijelu ličkog zaleđa, te obuhvaća veći dio planine Velebit i njegovo Senjsko-karlobaško priobalje i sjeverozapadni dio najbližeg otoka Paga. Županiji pripada i dio teritorijalnog mora (596,63 km2 ili 1,9% hrvatskog morskog akvatorija), što ne povećava samo njegovu površinu, nego i značenje, te sa 2,29 km2 površine otoka čini 0,07% površine svih otoka Hrvatske. Važnost Županije u hrvatskom prostoru i izvan njega prvenstveno je određena funkcijom geoprometnog križišta između tri vodeća polarizacijska žarišta u državi - Zagreba, Rijeke i Splita, zatim pripadnošću njezina kontinentskog područja geostrateškoj i ekološkoj jezgri Hrvatske te autohtonim gospodarskim potencijalima sadržanim u poljodjelskim površinama, šumskom i vodnom bogatstvu, te turistički vrijednim područjima (priobalje), prostorima nacionalnih parkova i parkova prirode te porječjima krških rijeka.</t>
+  </si>
+  <si>
+    <t>Virovitičko-podravska županija se nalazi u kontinentalnom dijelu Republike Hrvatske na prostoru dodira središnje i istočne Hrvatske te je po svom zemljopisnom položaju poveznica Slavonije i Podravine.Prostor Županije je izdužen u obliku pravca istok-zapad. Ovdje je jasno vidljiva reljefna podjela, na, sjeverni prostor podravske nizine, i, južni, brdsko planinski prostor koji obuhvaća sjeverne padine Bilogore, Papuka i Krndije. Tu na spoju Podravine i Slavonije križaju se dva važna prometna koridora: transverzalni, primarnog značaja, jer je najkraća i prometno najpogodnija veza Srednjeg Podunavlja i srednjeg Jadrana i longitudinalni, sekundarnog značaja, koji slijedi tok rijeke Drave i povezuje Republiku Hrvatsku sa zapadnim i istočnim susjedima.</t>
+  </si>
+  <si>
+    <t>Požeško-slavonska županija sa sjedištem u Gradu Požegi osnovana je Zakonom o područjima županija, gradova i općina u Republici Hrvatskoj kao jedna od dvadeset hrvatskih županija. U svom upravnom djelokrugu obavlja poslove od područnog (regionalnog) značaja, a osobito poslove koji se odnose na školstvo, zdravstvo, prostorno i urbanističko planiranje, gospodarski razvoj te planiranje i razvoj mreže obrazovnih, zdravstvenih, socijalnih i kulturnih ustanova. Premda spada u manje hrvatske županije, Požeško-slavonska županija po mnogočemu pokazuje potencijal mjesta ugodnog življenja za svoje žitelje. Ono po čemu se posebno ističe je bogatstvo prirodnih lokaliteta, plodno slavonsko tlo pogodno za poljoprivredu, vinogradarstvo i voćarstvo, duga tradicija obrtništva i uspješnih obiteljskih tvrtki te bogata kulturna i povijesna ostavština.</t>
+  </si>
+  <si>
+    <t>Brodsko-posavska županija smještena je u južnom dijelu slavonske nizine, na prostoru između planina Psunja, Požeškog i Diljskog gorja sa sjevera i rijeke Save s juga, koja je dio državne granice prema Bosni i Hercegovini u dužini od 163 km. edna je od najužih (7 km) i najdužih županija (117 km zračne dužine), na istoku graniči s Vukovarsko-srijemskom, na sjeveroistoku s Osječko-baranjskom, na sjeveru s Požeško-slavonskom i na zapadu sa Sisačko-moslavačkom županijom. Brodsko-posavska županija može se podijeliti u tri reljefne cjeline: brdsku, ravničarsku i nizinsku. Brdsko područje čini blago uzdignuto gorje, najvećim dijelom pokriveno šumom s najvišom nadmorskom visinom od 984 m (Psunj). Ravničarsko područje zauzima najveći dio Županije, a čini ga rubni pojas plodne slavonske ravnice. Nizinsko područje uz Savu isprepleteno je potocima, kanalskom mrežom i močvarama. Županija je područje umjerene kontinentalne klime, sve blažih zima i toplijih ljeta. Voda, šume i plodno tlo, plovna rijeka i europski putni koridori prirodni su uvjeti koji omogućuju razvoj gospodarstva, prometa, trgovine i kulture.</t>
+  </si>
+  <si>
+    <t>Zadarska županija smještena je na središnjem dijelu hrvatske obale Jadrana. Određena svojim prirodnim položajem u Republici Hrvatskoj, Zadarska županija postaje i značajna prometna poveznica; povezana je državnim cestama i autocestom A1 Zagreb – Split (tzv. Dalmatina), zračnim linijama (Zračna luka Zadar), trajektnim vezama s Anconom u Italiji (iz grada Zadra) te željezničkim pravcima s ostatkom Hrvatske. Geografski, Županiju okružju cresko-lošinjska, kornatska, žutsko-sitska, te murterska otočna skupina. S kopnene strane, okružena je planinskim lancem Dinarida, odnosno masivom Velebita, Ličkim sredogorjem, Plješivicom, i Uilicom (BiH), te sjevernodalmatinskom zaravni. Posebnost županijskog područja je brojnost otoka, kanala, morskih prolaza, duboko uvučene morske površine u kopno, razvedena obala, plodna zona Ravnih kotara i krš brdsko – planinskog prostora. Administrativno, graniči sa Šibensko-kninskom, Primorsko-goranskom i Ličko-senjskom županijom. Na istoku graniči s Bosnom i Hercegovinom, dužina granice je 24 km, a međunarodna morska granica s Italijom, prema zapadu, iznosi 83,43 km.</t>
+  </si>
+  <si>
+    <t>Osječko-baranjska županija kao jedinica područne (regionalne) samouprave dio je upravno-teritorijalnog ustrojstva Republike Hrvatske ustanovljenog 1993. godine. Smještena je u sjeveroistočnom dijelu Republike Hrvatske u Panonskom prostoru. Obuhvaća krajeve oko donjeg toka rijeke Drave prije njezinog utoka u Dunav. Plavno područje rijeke Dunav stvorilo je Kopački rit, svjetski poznato utočište brojnih ptičjih vrsta, proglašeno Parkom prirode i zaštićeno kao posebni zoološki rezervat. Pretežito je ravničarsko područje koje pogoduje razvitku poljoprivrede. O poljoprivrednom karakteru ovog područja govori činjenica da 260.778 ha čine obradive poljoprivredne površine, a 82.868 ha nalazi se pod šumama.  Područje Županije ispresijecano je sa 1.700 km cesta i 180 km željezničkih pruga. Rijeke Dunav i Drava (koja je plovna do Donjeg Miholjca, a sa statusom međunarodnog plovnog puta do Osijeka) povezuju ovo područje i s riječnom mrežom europskih rijeka. S dvije zračne luke kod Osijeka (Osijek i Klisa) Županija je povezana s mrežom hrvatskih zračnih luka. Preko Osijeka vodi i europski prometni koridor V/c koji povezuje sjever Europe (Baltik) s njegovim jugom (Jadransko more).</t>
+  </si>
+  <si>
+    <t>Šibensko-kninska županija nalazi se u središnjem dijelu sjeverne Dalmacije, a obuhvaća najljepše hrvatske otoke, povijesno i zemljopisno najvrjedniji dio obale Jadrana, te prostranu, krševitu Zagoru. Zahvaljujući rijeci Krki koja protječe njenim središnjim dijelom, na jedinstven su način raznoliki krajolici povezani u osebujan spomenik prirode ali i ukupne ljudske i hrvatske nacionalne povijesti. Na sjeveru županije je planina Dinara s istoimenim najvišim planinskim vrhom Republike Hrvatske (1.831m), a na jugu, daleko na pučini mora svjetionik Blitvenica. Na istoku se prostiru primoštenski vinogradi u kamenu, Rogoznica, a na zapadu Murter i Kornati.</t>
+  </si>
+  <si>
+    <t>Vukovarsko-srijemska županija smještena je na krajnjem sjeveroistoku Republike Hrvatske. Leži u međurječju, između Dunava i Save, i zauzima dijelove povijesnih pokrajina istočne Slavonije i zapadnog Srijema. Najviša je točka Čukala kod Iloka (294 m nadmorske visine), a najniža u Posavini - Spačva (78 m). Na istoku se blago spuštaju obronci Fruške gore i prelaze u vukovarski ravnjak, dok se sa zapada, s planine Dilja, pruža vinkovačko-đakovački ravnjak. Ovim područjem vode važni riječni i kopneni putevi i križaju se međunarodni prometni pravci od istoka prema zapadu uz rijeku Dunav, te od sjevera preko rijeke Save prema Jadranskom moru. Područje je to na kojem se dotiču i miješaju civilizacije zapadnoeuropskog i istočnog kulturnog kruga.</t>
+  </si>
+  <si>
+    <t>Splitsko-dalmatinska županija prostorno je najveća županija Hrvatske. Geografski je smještena na središnjem dijelu jadranske obale. Proteže se od Vrlike na sjeveru do najudaljenijeg hrvatskog otoka Palagruže na jugu, od Marine na zapadu do Vrgorca na istoku. Splitsko-dalmatinska županija graniči: na sjeveru s Republikom Bosnom i Hercegovinom, na istoku s Dubrovačko-neretvanskom županijom, a na jugu se prostire do granice teritorijalnog mora Republike Hrvatske. Zaobalje, u kontinentalnom dijelu županije, ispresijecano je planinama koje se pružaju paralelno s obalom. Kraj je rijetko nastanjen i ekonomski siromašan. Priobalje čini uski pojas uz more između planinskih lanaca i mora. To je područje visoko urbanizirano i ekonomski razvijenije u odnosu na zaobalje. Otoci su slabo nastanjeni, ekonomski su razvijeniji od zaobalja, međutim zbog različitih prilika imali su trajnu emigraciju stanovnika. Otočno područje Županije sastoji se od 74 otoka i 57 hridi i grebena. Veličinom i naseljenošću se izdvaja 5 otoka, a to su Čiovo, Šolta, Brač, Hvar i Vis. Naseljeno je još 6 otoka: Veli Drvenik, Mali Drvenik, Sv. Klement, Šćedro, Biševo i Sv. Andrija.</t>
+  </si>
+  <si>
+    <t>Istarska  županija obuhvaća veći dio Istre - najvećeg jadranskog poluotoka. Najzapadnija točka Republike Hrvatske je u Istarskoj županiji (Bašanija, rt Lako) na 45° sjeverne zemljopisne širine. Smještena u sjeveroistočnom dijelu Jadranskog mora, Istra je s tri strane okružena morem, a sjevernu granicu prema kopnu čini linija između Miljskog zaljeva (Muggia) u neposrednoj blizini Trsta i Prelučkog zaljeva, u neposrednoj blizini Rijeke. Tako povoljnim zemljopisnim položajem, gotovo u srcu Europe, na pola puta između ekvatora i sjevernog pola, Istra je oduvijek predstavljala most koji je povezivao srednjoeuropski kontinentalni prostor s mediteranskim. To područje dijele tri države: Hrvatska, Slovenija i Italija. Vrlo malen dio Istre, tek sjeverna strana Miljskoga poluotoka, pripada Republici Italiji. Slovensko primorje s Koparskim zaljevom i dijelom Piranskoga zaljeva do ušća rijeke Dragonje dio je Republike Slovenije.</t>
+  </si>
+  <si>
+    <t>Dubrovačko-neretvanska županija je najjužnija županija u Republici Hrvatskoj. Prostor Županije čine dvije osnovne funkcionalne i fizionomske cjeline: relativno usko uzdužno obalno područje s nizom pučinskih i bližih otoka (od kojih su najznačajniji Korčula, Mljet, Lastovo i grupa Elafitskih otoka) te prostor Donje Neretve s gravitirajućim priobalnim dijelom. Prostor je prekinut državnom granicom sa Bosnom i Hercegovinom i samo na području donjo-Neretvanske doline ima prirodnu vezu sa unutrašnjošću i spoj prema sjeveru i panonskom dijelu Hrvatske. Obalna duljina je vrlo razvedena i varira od zaštićenih uvala s pjeskovitim plažama egzotične ljepote do otvorenom moru izložene strme obale s klifovima što ovu Županiju čini jednom od najljepših područja na Sredozemlju. Područje Županije ima sve karakteristike sredozemne klime sa klimatskim razlikama koje su posljedica postojanja visoke planinske barijere neposredno uz obalu, niza otoka i povremenih kontinentalnih utjecaja.</t>
+  </si>
+  <si>
+    <t>Međimurska županija omeđena rijekama Murom i Dravom, smješteno na krajnjem sjeveru Hrvatske, bogate povijesti i kulturnog naslijeđa, Međimurje predstavlja zaokruženu cjelinu i zasebnu regiju. Ova prostorno najmanja hrvatska županija jedan je od najgušće naseljenih dijelova naše zemlje. Iako su ga tijekom povijesti često svojatali Mađari, “zemlja med Murom i Dravom” etnički je najhomogeniji dio Hrvatske. Ovdje završava Panonska nizina i počinju Alpe. Vinorodni brežuljkasti dio na zapadu, obale  Mure i Drave, od kojih je prva jedna od rijetkih u Europi očuvana u svom prirodnom obliku, plodne ravnice na istoku te bogata flora i fauna odrednice su koje Međimurje izdvajaju od ostalih i daju mu za pravo da se naziva “cvjetnjakom Hrvatske”. Malo je područja u kojima na tako malom prostoru ima toliko raznolikosti. Upravo su one, uz pitomost krajolika i plodnost zemlje, razlog što je Međimurje naseljeno od pradavnih vremena. Zahvaljujući svom položaju, ali i izgrađenoj prometnoj infrastrukturi, Međimurje danas predstavlja “vrata Hrvatske” prema srednjoj i istočnoj Europi. Ovuda prolazi autocesta koja povezuje Rijeku i Zagreb s Budimpeštom, sa slovenske strane rijeke Mure prolazi europski koridor V koji Veneciju spaja s ukrajinskim Lavovom. 1850. ovdje je izgrađena prva hrvatska pruga koja je glavni mađarski grad povezala s Trstom, a željeznicom se preko Varaždina može i do Zagreba. U krugu od 300 kilometara nalaze se Beč, Bratislava, Budimpešta, Ljubljana, Zagreb, Graz i Trst. Na sat i pol vožnje autocestom nalaze se i međunarodne zračne luke Zagreb, Maribor, Graz i Heviz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zagreb je glavni grad Republike Hrvatske i najveći grad u Hrvatskoj po broju stanovnika. Grad Zagreb je kao glavni grad Hrvatske posebna teritorijalna, upravna i samoupravna jedinica. Šire područje grada okuplja više od milijun stanovnika. Povijesno gledajući, grad Zagreb izrastao je iz dvaju naselja na susjednim brežuljcima, Gradeca i Kaptola, koji čine jezgru današnjega grada, njegovo povijesno središte (Gornji i dio Donjega Grada). Nalazi se na jugozapadnomu rubu Panonske nizine na prosječnoj nadmorskoj visini od 122 m, podno južnih padina Medvednice, na lijevoj i desnoj obali rijeke Save. Položaj grada Zagreba, koji je na mjestu spajanja alpskog, dinarskog, jadranskog i panonskog područja, omogućio je Zagrebu postati most između srednjoeuropskoga i jadranskoga područja.  Kao najveći i glavni grad, Zagreb je kulturno, znanstveno, gospodarsko i upravno središte Republike Hrvatske i Zagrebačke županije. Sjedište je Zagrebačke nadbiskupije. Zahvaljujući ulozi najvećega prometnoga središta u Hrvatskoj, razvijenoj industriji s dugom tradicijom i znanstvenim i istraživačkim ustanovama, Zagreb je gospodarski najrazvijeniji grad u Hrvatskoj. </t>
   </si>
 </sst>
 </file>
@@ -219,9 +286,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -514,11 +584,12 @@
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,31 +603,34 @@
         <v>52</v>
       </c>
       <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -569,32 +643,35 @@
       <c r="D2">
         <v>98.03</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
         <v>134754</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>194643</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>224095</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>233875</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>282989</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>309696</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>316606</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>301206</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -607,32 +684,35 @@
       <c r="D3">
         <v>98.21</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1">
         <v>100804</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>152047</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>175227</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>168952</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>148779</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>142432</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>132892</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>120942</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -645,32 +725,35 @@
       <c r="D4">
         <v>31.25</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1">
         <v>168292</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>235514</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>268287</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>255635</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>251332</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>185387</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>172439</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>140549</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -683,32 +766,35 @@
       <c r="D5">
         <v>30.97</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1">
         <v>165697</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>194294</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>231633</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>202431</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>184577</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>141387</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>128899</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>112596</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -721,32 +807,35 @@
       <c r="D6">
         <v>126.38</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1">
         <v>87960</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>131849</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>159767</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>179905</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>187853</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>184769</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>175951</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>160264</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -759,32 +848,35 @@
       <c r="D7">
         <v>57.91</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1">
         <v>87464</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>132581</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>143268</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>143019</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>129397</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>124467</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>115584</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>101661</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -797,32 +889,35 @@
       <c r="D8">
         <v>38.590000000000003</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1">
         <v>84893</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>150825</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>173597</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>167599</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>144042</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>133084</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>119764</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>102295</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -835,32 +930,35 @@
       <c r="D9">
         <v>73.97</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1">
         <v>165503</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>217653</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>237748</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>240621</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>323130</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>305505</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>296195</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>266503</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -873,32 +971,35 @@
       <c r="D10">
         <v>7.99</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="1">
         <v>155467</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>186871</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>172735</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>118329</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>85135</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>53677</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>50927</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>42893</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -911,32 +1012,35 @@
       <c r="D11">
         <v>34.770000000000003</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1">
         <v>57107</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>90266</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>125049</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>127512</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>104625</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>93389</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>84836</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>70660</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -949,32 +1053,35 @@
       <c r="D12">
         <v>35.15</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
         <v>47877</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>79141</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>99657</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>99340</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>99334</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>85831</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>78034</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>64420</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -987,32 +1094,35 @@
       <c r="D13">
         <v>64.17</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1">
         <v>74136</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>99979</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>128790</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>154309</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>174998</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>176765</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>158575</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>130782</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1025,32 +1135,35 @@
       <c r="D14">
         <v>43.82</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1">
         <v>84091</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>123375</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>149855</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>174957</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>214777</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>162045</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>170017</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>160340</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1063,32 +1176,35 @@
       <c r="D15">
         <v>62.1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1">
         <v>146505</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>209709</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>263024</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>328965</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>367193</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>330506</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>305032</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>259481</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1101,32 +1217,35 @@
       <c r="D16">
         <v>32.19</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1">
         <v>85163</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>118310</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>147166</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>164757</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>152477</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>112891</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>109375</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>96624</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1139,32 +1258,35 @@
       <c r="D17">
         <v>58.32</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="1">
         <v>86768</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>125569</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>139340</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>193224</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>231241</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>204768</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>179521</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>144438</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1177,32 +1299,35 @@
       <c r="D18">
         <v>93.26</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="1">
         <v>164242</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>249867</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>292321</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>339686</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>474019</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>463676</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>454798</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>425412</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1215,32 +1340,35 @@
       <c r="D19">
         <v>69.41</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="1">
         <v>117719</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>194455</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>223949</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>176838</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>204346</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>206344</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>208055</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>195794</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1253,32 +1381,35 @@
       <c r="D20">
         <v>64.89</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="1">
         <v>63379</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>83135</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>90577</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>99593</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>126329</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>122870</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>122568</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>115862</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1291,32 +1422,35 @@
       <c r="D21">
         <v>144.38</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1">
         <v>55412</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>79808</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>99346</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>112073</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>119866</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>118426</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>113804</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>105863</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1329,28 +1463,31 @@
       <c r="D22">
         <v>1196</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
         <v>48266</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>111565</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>258024</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>478076</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>777826</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>779145</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>790017</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>769944</v>
       </c>
     </row>
